--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="19140" windowHeight="9264"/>
+    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -99,16 +104,16 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Rebound Emis Factor</t>
-  </si>
-  <si>
     <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
   </si>
+  <si>
+    <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,6 +179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -221,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,14 +477,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,52 +492,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -549,23 +557,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2009</v>
       </c>
@@ -582,7 +590,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -602,7 +610,7 @@
         <v>-871026</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -622,7 +630,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -642,7 +650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -667,7 +675,7 @@
         <v>-2.6750062569888842E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -704,19 +712,21 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -724,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -732,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -740,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -748,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -756,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -764,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -772,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -780,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -788,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -797,7 +807,7 @@
         <v>4.2997168577917945E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -806,7 +816,7 @@
         <v>3.5003753313133949E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1072,13 +1082,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964C7A2E-D73A-457E-8EA4-78789A8CD87B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE1E6134-0B4E-4232-95AF-622FCAEA7768}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA3AD1D-AE51-422A-A4CE-C046C5A9C30D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC6C870-E902-43FA-9A4A-4F55E02490C8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{696D804F-D8ED-49A8-9DF6-ADD77AD64D96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BBA464C-71E1-49CC-96F8-F2A5E03A4BD9}"/>
 </file>